--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st03.xlsx
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Liskarm"]     If you go ask them, all you'll get is, "What is there to study? There is nothing simpler." "Why not just feel it out?" Answers like that.
+    <t xml:space="preserve">[name="Liskarm"]     If you go ask them, all you'll get is, 'What is there to study? There is nothing simpler.' 'Why not just feel it out?' Answers like that.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st03.xlsx
@@ -840,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">05:32 P.M. - Clear Skies
+    <t xml:space="preserve">05:32 P.M. \ Clear
 </t>
   </si>
   <si>
